--- a/Journaux_Axel.Pittet.xlsx
+++ b/Journaux_Axel.Pittet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Journeaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel Pittet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492E0057-67DC-4847-8B6F-668CDC059301}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12330"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de Travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -127,12 +128,42 @@
   </si>
   <si>
     <t>Code sur un autre fichier afin de se donner une idée de la manière de faire le jeu en lui-même</t>
+  </si>
+  <si>
+    <t>Sprints</t>
+  </si>
+  <si>
+    <t>Création des sprints 1, 2 et 3</t>
+  </si>
+  <si>
+    <t>Création des sprints 4, 5 et 6</t>
+  </si>
+  <si>
+    <t>Fin du code</t>
+  </si>
+  <si>
+    <t>Début de la fonction Jouer                                              Fonctionnalités déjà présentes : Remplir la carte / Afficher la carte / Tirer</t>
+  </si>
+  <si>
+    <t>Avance dans la Fonction Jouer                               Nouvelles fonctionnalités : Changer la valeur de la carte après un tir / vérifier un tir</t>
+  </si>
+  <si>
+    <t>Vérifications et petits changements</t>
+  </si>
+  <si>
+    <t>Kenan Augsburger</t>
+  </si>
+  <si>
+    <t>MA-20</t>
+  </si>
+  <si>
+    <t>M'a montré comment convertir une lettre en chiffre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
   </numFmts>
@@ -338,21 +369,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -368,6 +387,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,9 +406,6 @@
   <dxfs count="21">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -416,13 +444,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -433,6 +454,16 @@
         <top style="medium">
           <color indexed="64"/>
         </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -590,31 +621,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A2:H79" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
-  <autoFilter ref="A2:H79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A2:H79" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
+  <autoFilter ref="A2:H79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Date" dataDxfId="16"/>
-    <tableColumn id="2" name="Heure début" dataDxfId="15"/>
-    <tableColumn id="3" name="Heure fin" dataDxfId="14"/>
-    <tableColumn id="4" name="Temps" dataDxfId="13"/>
-    <tableColumn id="5" name="Projet" dataDxfId="12"/>
-    <tableColumn id="6" name="Tâche" dataDxfId="11"/>
-    <tableColumn id="7" name="Description / Résumé" dataDxfId="10"/>
-    <tableColumn id="8" name="Sources" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure fin" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Temps" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Projet" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tâche" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description / Résumé" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:E18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="2" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="A2:E18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau2" displayName="Tableau2" ref="A2:E18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+  <autoFilter ref="A2:E18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" name="Qui" dataDxfId="4"/>
-    <tableColumn id="3" name="Cours" dataDxfId="3"/>
-    <tableColumn id="4" name="Projet" dataDxfId="1"/>
-    <tableColumn id="5" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Qui" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Cours" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Projet" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -882,37 +913,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,7 +969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>43894</v>
       </c>
@@ -964,7 +995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>43894</v>
       </c>
@@ -990,7 +1021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>43896</v>
       </c>
@@ -1016,7 +1047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43896</v>
       </c>
@@ -1042,7 +1073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43896</v>
       </c>
@@ -1068,7 +1099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>43896</v>
       </c>
@@ -1094,7 +1125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>43896</v>
       </c>
@@ -1120,7 +1151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>43896</v>
       </c>
@@ -1146,77 +1177,189 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>43901</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>43903</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>43903</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>43903</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D14" s="9">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>43904</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>43906</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>43907</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D17" s="9">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -1226,7 +1369,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -1236,7 +1379,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -1246,7 +1389,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -1256,7 +1399,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -1266,7 +1409,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -1276,7 +1419,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -1286,7 +1429,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -1296,7 +1439,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -1306,7 +1449,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -1316,7 +1459,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -1326,7 +1469,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -1336,7 +1479,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -1346,7 +1489,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -1356,7 +1499,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
@@ -1366,7 +1509,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -1376,7 +1519,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
@@ -1386,7 +1529,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -1396,7 +1539,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
@@ -1406,7 +1549,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -1416,7 +1559,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -1426,7 +1569,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -1436,7 +1579,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -1446,7 +1589,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -1456,7 +1599,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -1466,7 +1609,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -1476,7 +1619,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -1486,7 +1629,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -1496,7 +1639,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
@@ -1506,7 +1649,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -1516,7 +1659,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -1526,7 +1669,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -1536,7 +1679,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -1546,7 +1689,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -1556,7 +1699,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
@@ -1566,7 +1709,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -1576,7 +1719,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
@@ -1586,7 +1729,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
@@ -1596,7 +1739,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
@@ -1606,7 +1749,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -1616,7 +1759,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
@@ -1626,7 +1769,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
@@ -1636,7 +1779,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
@@ -1646,7 +1789,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
@@ -1656,7 +1799,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
@@ -1666,7 +1809,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
@@ -1676,7 +1819,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
@@ -1686,7 +1829,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -1696,7 +1839,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
@@ -1706,7 +1849,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -1716,7 +1859,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
@@ -1726,7 +1869,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -1736,7 +1879,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
@@ -1746,7 +1889,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
@@ -1756,7 +1899,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
@@ -1766,7 +1909,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -1776,7 +1919,7 @@
       <c r="G73" s="5"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -1786,7 +1929,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -1796,7 +1939,7 @@
       <c r="G75" s="5"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -1806,7 +1949,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -1816,7 +1959,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
@@ -1826,7 +1969,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
@@ -1849,187 +1992,198 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>43896</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
         <v>43896</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="20"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>43901</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Journaux_Axel.Pittet.xlsx
+++ b/Journaux_Axel.Pittet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel Pittet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel Pittet\Documents\GitHub\Bataille-navale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492E0057-67DC-4847-8B6F-668CDC059301}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D822A6-6D37-472A-AA16-8242B9125C07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de Travail" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>M'a montré comment convertir une lettre en chiffre</t>
+  </si>
+  <si>
+    <t>Objectifs smar</t>
+  </si>
+  <si>
+    <t>Améliorations des objectifs des sprints en objectfs SMAR</t>
   </si>
 </sst>
 </file>
@@ -916,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1359,15 +1365,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>43914</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.8125</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
@@ -1995,7 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Journaux_Axel.Pittet.xlsx
+++ b/Journaux_Axel.Pittet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel Pittet\Documents\GitHub\Bataille-navale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D822A6-6D37-472A-AA16-8242B9125C07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23426EC-4FA5-4D60-B80B-B296CFD049CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1008" yWindow="1656" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de Travail" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>Améliorations des objectifs des sprints en objectfs SMAR</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Tests des différentes fonctionnalités du code</t>
+  </si>
+  <si>
+    <t>Clion / draw.io</t>
   </si>
 </sst>
 </file>
@@ -922,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1391,15 +1400,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>43921</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D19" s="9">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>

--- a/Journaux_Axel.Pittet.xlsx
+++ b/Journaux_Axel.Pittet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel Pittet\Documents\GitHub\Bataille-navale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23426EC-4FA5-4D60-B80B-B296CFD049CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12962488-CBF9-4248-8632-59A8F1B13B65}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="1656" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de Travail" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -94,9 +94,6 @@
     <t xml:space="preserve">Début du code                                                        Fonctionnalités déjà présentes: Menu / Règles / Quitter                           </t>
   </si>
   <si>
-    <t>Clion</t>
-  </si>
-  <si>
     <t>Cours</t>
   </si>
   <si>
@@ -172,7 +169,10 @@
     <t>Tests des différentes fonctionnalités du code</t>
   </si>
   <si>
-    <t>Clion / draw.io</t>
+    <t>https://openclassrooms.com/fr/courses/19980-apprenez-a-programmer-en-c/16421-lire-et-ecrire-dans-des-fichiers</t>
+  </si>
+  <si>
+    <t>Apprentissage de comment lire et écrire sur un fichier texte extérieur au programme</t>
   </si>
 </sst>
 </file>
@@ -182,7 +182,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +202,14 @@
       <b/>
       <sz val="18"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -353,10 +361,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -414,8 +423,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
@@ -931,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,9 +1123,7 @@
       <c r="G7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -1134,11 +1145,9 @@
         <v>20</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -1157,10 +1166,10 @@
         <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>14</v>
@@ -1186,11 +1195,9 @@
         <v>20</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -1209,10 +1216,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>19</v>
@@ -1235,10 +1242,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>19</v>
@@ -1264,11 +1271,9 @@
         <v>20</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -1290,11 +1295,9 @@
         <v>20</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -1316,11 +1319,9 @@
         <v>20</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -1342,11 +1343,9 @@
         <v>20</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
@@ -1365,10 +1364,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>19</v>
@@ -1391,10 +1390,10 @@
         <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>19</v>
@@ -1417,24 +1416,40 @@
         <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D20" s="9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
@@ -2030,10 +2045,13 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H20" r:id="rId1" xr:uid="{706D1F64-60A7-4467-B9DB-E41C9154232E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2057,7 +2075,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -2072,13 +2090,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2086,7 +2104,7 @@
         <v>43896</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>8</v>
@@ -2095,7 +2113,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2103,7 +2121,7 @@
         <v>43896</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>8</v>
@@ -2112,7 +2130,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2120,16 +2138,16 @@
         <v>43901</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">

--- a/Journaux_Axel.Pittet.xlsx
+++ b/Journaux_Axel.Pittet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel Pittet\Documents\GitHub\Bataille-navale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12962488-CBF9-4248-8632-59A8F1B13B65}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA28CCCB-47C4-419A-B70E-72A22B5FEEBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>Apprentissage de comment lire et écrire sur un fichier texte extérieur au programme</t>
+  </si>
+  <si>
+    <t>https://www.developpez.net/forums/d1488547/c-cpp/c/debuter/recommencer-programme-chaine-char-oui-non/</t>
+  </si>
+  <si>
+    <t>Début du système d'authentification</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -365,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -411,6 +420,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,7 +435,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -432,6 +447,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -505,14 +528,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
       </border>
     </dxf>
     <dxf>
@@ -659,21 +674,21 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Projet" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tâche" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description / Résumé" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau2" displayName="Tableau2" ref="A2:E18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau2" displayName="Tableau2" ref="A2:E18" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="A2:E18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Qui" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Cours" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Projet" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Qui" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Cours" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Projet" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Description" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -944,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,20 +971,20 @@
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="28.44140625" customWidth="1"/>
     <col min="7" max="7" width="37.5546875" customWidth="1"/>
-    <col min="8" max="8" width="31.109375" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -993,7 +1008,7 @@
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1123,7 +1138,9 @@
       <c r="G7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -1147,7 +1164,9 @@
       <c r="G8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -1197,7 +1216,9 @@
       <c r="G10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -1273,7 +1294,9 @@
       <c r="G13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -1297,7 +1320,9 @@
       <c r="G14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -1321,7 +1346,9 @@
       <c r="G15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -1345,7 +1372,9 @@
       <c r="G16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
@@ -1447,19 +1476,35 @@
       <c r="G20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
+    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D21" s="9">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
@@ -2047,11 +2092,12 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H20" r:id="rId1" xr:uid="{706D1F64-60A7-4467-B9DB-E41C9154232E}"/>
+    <hyperlink ref="H21" r:id="rId2" xr:uid="{4C4507B7-83E7-462A-AB32-C03D06DCD4EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2074,13 +2120,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">

--- a/Journaux_Axel.Pittet.xlsx
+++ b/Journaux_Axel.Pittet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel Pittet\Documents\GitHub\Bataille-navale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA28CCCB-47C4-419A-B70E-72A22B5FEEBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBADA209-FADB-4EE3-BC53-454252DA3082}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,23 @@
     <sheet name="Journal de Travail" sheetId="1" r:id="rId1"/>
     <sheet name="Journal de Bord" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -182,6 +188,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Fin du système d'authentification</t>
+  </si>
+  <si>
+    <t>Système d'enregistrement de scores et de l'affichage de ceux-ci</t>
   </si>
 </sst>
 </file>
@@ -423,6 +435,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,26 +453,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -528,6 +532,14 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
       </border>
     </dxf>
     <dxf>
@@ -674,21 +686,21 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Projet" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tâche" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description / Résumé" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau2" displayName="Tableau2" ref="A2:E18" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau2" displayName="Tableau2" ref="A2:E18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A2:E18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Qui" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Cours" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Projet" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Description" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Qui" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Cours" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Projet" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -959,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,20 +983,20 @@
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="28.44140625" customWidth="1"/>
     <col min="7" max="7" width="37.5546875" customWidth="1"/>
-    <col min="8" max="8" width="31.109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1008,7 +1020,7 @@
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1507,24 +1519,56 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
+      <c r="A22" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="D23" s="9">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
@@ -2120,13 +2164,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
